--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.91935</v>
+        <v>1.745892333333333</v>
       </c>
       <c r="H2">
-        <v>5.758050000000001</v>
+        <v>5.237677</v>
       </c>
       <c r="I2">
-        <v>0.007326713291392804</v>
+        <v>0.006454440087978458</v>
       </c>
       <c r="J2">
-        <v>0.007457130387750966</v>
+        <v>0.006637272625305545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>53.12920809811668</v>
+        <v>45.81195585263722</v>
       </c>
       <c r="R2">
-        <v>478.1628728830501</v>
+        <v>412.3076026737349</v>
       </c>
       <c r="S2">
-        <v>0.001069420416610442</v>
+        <v>0.0006170848229766433</v>
       </c>
       <c r="T2">
-        <v>0.001099954281416665</v>
+        <v>0.0006392739183565991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.91935</v>
+        <v>1.745892333333333</v>
       </c>
       <c r="H3">
-        <v>5.758050000000001</v>
+        <v>5.237677</v>
       </c>
       <c r="I3">
-        <v>0.007326713291392804</v>
+        <v>0.006454440087978458</v>
       </c>
       <c r="J3">
-        <v>0.007457130387750966</v>
+        <v>0.006637272625305545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>55.4192811904</v>
+        <v>50.41086729838932</v>
       </c>
       <c r="R3">
-        <v>498.7735307136001</v>
+        <v>453.697805685504</v>
       </c>
       <c r="S3">
-        <v>0.001115516547309307</v>
+        <v>0.0006790319370556819</v>
       </c>
       <c r="T3">
-        <v>0.001147366539057739</v>
+        <v>0.0007034485226794948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.91935</v>
+        <v>1.745892333333333</v>
       </c>
       <c r="H4">
-        <v>5.758050000000001</v>
+        <v>5.237677</v>
       </c>
       <c r="I4">
-        <v>0.007326713291392804</v>
+        <v>0.006454440087978458</v>
       </c>
       <c r="J4">
-        <v>0.007457130387750966</v>
+        <v>0.006637272625305545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>128.7557720445834</v>
+        <v>189.3513378855983</v>
       </c>
       <c r="R4">
-        <v>1158.80194840125</v>
+        <v>1704.162040970385</v>
       </c>
       <c r="S4">
-        <v>0.002591682735542192</v>
+        <v>0.002550553335801284</v>
       </c>
       <c r="T4">
-        <v>0.002665679911057585</v>
+        <v>0.002642265964491069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.91935</v>
+        <v>1.745892333333333</v>
       </c>
       <c r="H5">
-        <v>5.758050000000001</v>
+        <v>5.237677</v>
       </c>
       <c r="I5">
-        <v>0.007326713291392804</v>
+        <v>0.006454440087978458</v>
       </c>
       <c r="J5">
-        <v>0.007457130387750966</v>
+        <v>0.006637272625305545</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>11.4146086107</v>
+        <v>10.58937735534383</v>
       </c>
       <c r="R5">
-        <v>68.48765166420002</v>
+        <v>63.536264132063</v>
       </c>
       <c r="S5">
-        <v>0.0002297609155656256</v>
+        <v>0.0001426383992810701</v>
       </c>
       <c r="T5">
-        <v>0.0001575473336480374</v>
+        <v>9.85115876254764E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.91935</v>
+        <v>1.745892333333333</v>
       </c>
       <c r="H6">
-        <v>5.758050000000001</v>
+        <v>5.237677</v>
       </c>
       <c r="I6">
-        <v>0.007326713291392804</v>
+        <v>0.006454440087978458</v>
       </c>
       <c r="J6">
-        <v>0.007457130387750966</v>
+        <v>0.006637272625305545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>115.2749991534667</v>
+        <v>183.0096860241387</v>
       </c>
       <c r="R6">
-        <v>1037.4749923812</v>
+        <v>1647.087174217248</v>
       </c>
       <c r="S6">
-        <v>0.002320332676365237</v>
+        <v>0.002465131592863778</v>
       </c>
       <c r="T6">
-        <v>0.00238658232257094</v>
+        <v>0.002553772632152905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>246.1529693333333</v>
       </c>
       <c r="H7">
-        <v>738.458908</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I7">
-        <v>0.9396369771695304</v>
+        <v>0.9100100634537022</v>
       </c>
       <c r="J7">
-        <v>0.956362720530769</v>
+        <v>0.9357875819722039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>6813.719400672101</v>
+        <v>6459.017402616216</v>
       </c>
       <c r="R7">
-        <v>61323.47460604891</v>
+        <v>58131.15662354595</v>
       </c>
       <c r="S7">
-        <v>0.1371511246069506</v>
+        <v>0.08700265108342981</v>
       </c>
       <c r="T7">
-        <v>0.1410670344135384</v>
+        <v>0.09013108667496973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>246.1529693333333</v>
       </c>
       <c r="H8">
-        <v>738.458908</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I8">
-        <v>0.9396369771695304</v>
+        <v>0.9100100634537022</v>
       </c>
       <c r="J8">
-        <v>0.956362720530769</v>
+        <v>0.9357875819722039</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
         <v>7107.416898083156</v>
       </c>
       <c r="R8">
-        <v>63966.7520827484</v>
+        <v>63966.75208274842</v>
       </c>
       <c r="S8">
-        <v>0.1430628652724379</v>
+        <v>0.09573656083322123</v>
       </c>
       <c r="T8">
-        <v>0.1471475658440474</v>
+        <v>0.09917904977571414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>246.1529693333333</v>
       </c>
       <c r="H9">
-        <v>738.458908</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I9">
-        <v>0.9396369771695304</v>
+        <v>0.9100100634537022</v>
       </c>
       <c r="J9">
-        <v>0.956362720530769</v>
+        <v>0.9357875819722039</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>16512.68169306274</v>
+        <v>26696.60275029139</v>
       </c>
       <c r="R9">
-        <v>148614.1352375647</v>
+        <v>240269.4247526226</v>
       </c>
       <c r="S9">
-        <v>0.3323783577375917</v>
+        <v>0.3596019439823367</v>
       </c>
       <c r="T9">
-        <v>0.3418683540777036</v>
+        <v>0.37253248697536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>246.1529693333333</v>
       </c>
       <c r="H10">
-        <v>738.458908</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I10">
-        <v>0.9396369771695304</v>
+        <v>0.9100100634537022</v>
       </c>
       <c r="J10">
-        <v>0.956362720530769</v>
+        <v>0.9357875819722039</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>1463.901739287592</v>
+        <v>1492.993943350675</v>
       </c>
       <c r="R10">
-        <v>8783.410435725551</v>
+        <v>8957.963660104053</v>
       </c>
       <c r="S10">
-        <v>0.02946639831360826</v>
+        <v>0.02011055599113253</v>
       </c>
       <c r="T10">
-        <v>0.02020514444369906</v>
+        <v>0.01388912669171001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>246.1529693333333</v>
       </c>
       <c r="H11">
-        <v>738.458908</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I11">
-        <v>0.9396369771695304</v>
+        <v>0.9100100634537022</v>
       </c>
       <c r="J11">
-        <v>0.956362720530769</v>
+        <v>0.9357875819722039</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>14783.79833356256</v>
+        <v>25802.49467365176</v>
       </c>
       <c r="R11">
-        <v>133054.1850020631</v>
+        <v>232222.4520628658</v>
       </c>
       <c r="S11">
-        <v>0.2975782312389419</v>
+        <v>0.3475583515635818</v>
       </c>
       <c r="T11">
-        <v>0.3060746217517806</v>
+        <v>0.3600558318544501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09553966666666668</v>
+        <v>0.1752083333333333</v>
       </c>
       <c r="H12">
-        <v>0.286619</v>
+        <v>0.525625</v>
       </c>
       <c r="I12">
-        <v>0.0003647025011706591</v>
+        <v>0.0006477327775736603</v>
       </c>
       <c r="J12">
-        <v>0.0003711942853234679</v>
+        <v>0.0006660808644130265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>2.644617621568778</v>
+        <v>4.597440677430555</v>
       </c>
       <c r="R12">
-        <v>23.801558594119</v>
+        <v>41.376966096875</v>
       </c>
       <c r="S12">
-        <v>5.323264132622471E-05</v>
+        <v>6.192730290109492E-05</v>
       </c>
       <c r="T12">
-        <v>5.475252840551282E-05</v>
+        <v>6.415408077592174E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09553966666666668</v>
+        <v>0.1752083333333333</v>
       </c>
       <c r="H13">
-        <v>0.286619</v>
+        <v>0.525625</v>
       </c>
       <c r="I13">
-        <v>0.0003647025011706591</v>
+        <v>0.0006477327775736603</v>
       </c>
       <c r="J13">
-        <v>0.0003711942853234679</v>
+        <v>0.0006660808644130265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>2.758610806698667</v>
+        <v>5.058962613333333</v>
       </c>
       <c r="R13">
-        <v>24.827497260288</v>
+        <v>45.53066352</v>
       </c>
       <c r="S13">
-        <v>5.552717278822627E-05</v>
+        <v>6.814398098907068E-05</v>
       </c>
       <c r="T13">
-        <v>5.711257284292254E-05</v>
+        <v>7.059429776471697E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09553966666666668</v>
+        <v>0.1752083333333333</v>
       </c>
       <c r="H14">
-        <v>0.286619</v>
+        <v>0.525625</v>
       </c>
       <c r="I14">
-        <v>0.0003647025011706591</v>
+        <v>0.0006477327775736603</v>
       </c>
       <c r="J14">
-        <v>0.0003711942853234679</v>
+        <v>0.0006660808644130265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>6.409088255163889</v>
+        <v>19.00227848645833</v>
       </c>
       <c r="R14">
-        <v>57.681794296475</v>
+        <v>171.020506378125</v>
       </c>
       <c r="S14">
-        <v>0.0001290064368976246</v>
+        <v>0.000255959769403602</v>
       </c>
       <c r="T14">
-        <v>0.000132689801309022</v>
+        <v>0.0002651635539162912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09553966666666668</v>
+        <v>0.1752083333333333</v>
       </c>
       <c r="H15">
-        <v>0.286619</v>
+        <v>0.525625</v>
       </c>
       <c r="I15">
-        <v>0.0003647025011706591</v>
+        <v>0.0006477327775736603</v>
       </c>
       <c r="J15">
-        <v>0.0003711942853234679</v>
+        <v>0.0006660808644130265</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>0.568186053506</v>
+        <v>1.062692768645833</v>
       </c>
       <c r="R15">
-        <v>3.409116321036</v>
+        <v>6.376156611874999</v>
       </c>
       <c r="S15">
-        <v>1.143683084698883E-05</v>
+        <v>1.431442004195991E-05</v>
       </c>
       <c r="T15">
-        <v>7.8422485429732E-06</v>
+        <v>9.88609134271568E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09553966666666668</v>
+        <v>0.1752083333333333</v>
       </c>
       <c r="H16">
-        <v>0.286619</v>
+        <v>0.525625</v>
       </c>
       <c r="I16">
-        <v>0.0003647025011706591</v>
+        <v>0.0006477327775736603</v>
       </c>
       <c r="J16">
-        <v>0.0003711942853234679</v>
+        <v>0.0006660808644130265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>5.738054546655111</v>
+        <v>18.36586452666667</v>
       </c>
       <c r="R16">
-        <v>51.642490919896</v>
+        <v>165.29278074</v>
       </c>
       <c r="S16">
-        <v>0.0001154994193115947</v>
+        <v>0.0002473873042379328</v>
       </c>
       <c r="T16">
-        <v>0.0001187971342230374</v>
+        <v>0.0002562828406133809</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.7445025</v>
+        <v>22.3534195</v>
       </c>
       <c r="H17">
-        <v>27.489005</v>
+        <v>44.706839</v>
       </c>
       <c r="I17">
-        <v>0.05246673569194342</v>
+        <v>0.08263900595103481</v>
       </c>
       <c r="J17">
-        <v>0.03560043669550251</v>
+        <v>0.05665326034015507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N17">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O17">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P17">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q17">
-        <v>380.4592875335842</v>
+        <v>586.5504119227742</v>
       </c>
       <c r="R17">
-        <v>2282.755725201505</v>
+        <v>3519.302471536645</v>
       </c>
       <c r="S17">
-        <v>0.007658140302525989</v>
+        <v>0.007900805594778074</v>
       </c>
       <c r="T17">
-        <v>0.005251195932934606</v>
+        <v>0.005456601494301314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.7445025</v>
+        <v>22.3534195</v>
       </c>
       <c r="H18">
-        <v>27.489005</v>
+        <v>44.706839</v>
       </c>
       <c r="I18">
-        <v>0.05246673569194342</v>
+        <v>0.08263900595103481</v>
       </c>
       <c r="J18">
-        <v>0.03560043669550251</v>
+        <v>0.05665326034015507</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O18">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P18">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q18">
-        <v>396.8585452729599</v>
+        <v>645.432276988288</v>
       </c>
       <c r="R18">
-        <v>2381.15127163776</v>
+        <v>3872.593661929728</v>
       </c>
       <c r="S18">
-        <v>0.007988235586674728</v>
+        <v>0.008693941460825048</v>
       </c>
       <c r="T18">
-        <v>0.005477542662705409</v>
+        <v>0.006004371756452341</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.7445025</v>
+        <v>22.3534195</v>
       </c>
       <c r="H19">
-        <v>27.489005</v>
+        <v>44.706839</v>
       </c>
       <c r="I19">
-        <v>0.05246673569194342</v>
+        <v>0.08263900595103481</v>
       </c>
       <c r="J19">
-        <v>0.03560043669550251</v>
+        <v>0.05665326034015507</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N19">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O19">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P19">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q19">
-        <v>922.0225757450207</v>
+        <v>2424.347600268032</v>
       </c>
       <c r="R19">
-        <v>5532.135454470124</v>
+        <v>14546.08560160819</v>
       </c>
       <c r="S19">
-        <v>0.01855909023256128</v>
+        <v>0.03265584456942866</v>
       </c>
       <c r="T19">
-        <v>0.01272599029245344</v>
+        <v>0.02255338751696257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.7445025</v>
+        <v>22.3534195</v>
       </c>
       <c r="H20">
-        <v>27.489005</v>
+        <v>44.706839</v>
       </c>
       <c r="I20">
-        <v>0.05246673569194342</v>
+        <v>0.08263900595103481</v>
       </c>
       <c r="J20">
-        <v>0.03560043669550251</v>
+        <v>0.05665326034015507</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N20">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O20">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P20">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q20">
-        <v>81.74023319680499</v>
+        <v>135.5804076508352</v>
       </c>
       <c r="R20">
-        <v>326.96093278722</v>
+        <v>542.321630603341</v>
       </c>
       <c r="S20">
-        <v>0.001645322363505368</v>
+        <v>0.001826261513990797</v>
       </c>
       <c r="T20">
-        <v>0.0007521330037751614</v>
+        <v>0.0008408578244910037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.7445025</v>
+        <v>22.3534195</v>
       </c>
       <c r="H21">
-        <v>27.489005</v>
+        <v>44.706839</v>
       </c>
       <c r="I21">
-        <v>0.05246673569194342</v>
+        <v>0.08263900595103481</v>
       </c>
       <c r="J21">
-        <v>0.03560043669550251</v>
+        <v>0.05665326034015507</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N21">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O21">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P21">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q21">
-        <v>825.4865001444866</v>
+        <v>2343.152671075856</v>
       </c>
       <c r="R21">
-        <v>4952.919000866919</v>
+        <v>14058.91602645514</v>
       </c>
       <c r="S21">
-        <v>0.01661594720667605</v>
+        <v>0.03156215281201222</v>
       </c>
       <c r="T21">
-        <v>0.0113935748036339</v>
+        <v>0.02179804174794784</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.05366933333333333</v>
+        <v>0.06728766666666666</v>
       </c>
       <c r="H22">
-        <v>0.161008</v>
+        <v>0.201863</v>
       </c>
       <c r="I22">
-        <v>0.0002048713459627082</v>
+        <v>0.0002487577297110141</v>
       </c>
       <c r="J22">
-        <v>0.0002085181006540421</v>
+        <v>0.0002558041979224861</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N22">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O22">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P22">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q22">
-        <v>1.485611889000889</v>
+        <v>1.765618392329444</v>
       </c>
       <c r="R22">
-        <v>13.370507001008</v>
+        <v>15.890565530965</v>
       </c>
       <c r="S22">
-        <v>2.990339480164534E-05</v>
+        <v>2.378279409374311E-05</v>
       </c>
       <c r="T22">
-        <v>3.075719018458234E-05</v>
+        <v>2.463797423575722E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.05366933333333333</v>
+        <v>0.06728766666666666</v>
       </c>
       <c r="H23">
-        <v>0.161008</v>
+        <v>0.201863</v>
       </c>
       <c r="I23">
-        <v>0.0002048713459627082</v>
+        <v>0.0002487577297110141</v>
       </c>
       <c r="J23">
-        <v>0.0002085181006540421</v>
+        <v>0.0002558041979224861</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O23">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P23">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q23">
-        <v>1.549647471957333</v>
+        <v>1.942863010730666</v>
       </c>
       <c r="R23">
-        <v>13.946827247616</v>
+        <v>17.485767096576</v>
       </c>
       <c r="S23">
-        <v>3.119234606319446E-05</v>
+        <v>2.61702705053922E-05</v>
       </c>
       <c r="T23">
-        <v>3.208294330903837E-05</v>
+        <v>2.711129936680916E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.05366933333333333</v>
+        <v>0.06728766666666666</v>
       </c>
       <c r="H24">
-        <v>0.161008</v>
+        <v>0.201863</v>
       </c>
       <c r="I24">
-        <v>0.0002048713459627082</v>
+        <v>0.0002487577297110141</v>
       </c>
       <c r="J24">
-        <v>0.0002085181006540421</v>
+        <v>0.0002558041979224861</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N24">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O24">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P24">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q24">
-        <v>3.600300335244444</v>
+        <v>7.297706429701665</v>
       </c>
       <c r="R24">
-        <v>32.4027030172</v>
+        <v>65.67935786731499</v>
       </c>
       <c r="S24">
-        <v>7.246926544301928E-05</v>
+        <v>9.82997515930926E-05</v>
       </c>
       <c r="T24">
-        <v>7.453839253211758E-05</v>
+        <v>0.0001018344075799368</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.05366933333333333</v>
+        <v>0.06728766666666666</v>
       </c>
       <c r="H25">
-        <v>0.161008</v>
+        <v>0.201863</v>
       </c>
       <c r="I25">
-        <v>0.0002048713459627082</v>
+        <v>0.0002487577297110141</v>
       </c>
       <c r="J25">
-        <v>0.0002085181006540421</v>
+        <v>0.0002558041979224861</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N25">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O25">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P25">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q25">
-        <v>0.319178072992</v>
+        <v>0.4081205238661666</v>
       </c>
       <c r="R25">
-        <v>1.915068437952</v>
+        <v>2.448723143197</v>
       </c>
       <c r="S25">
-        <v>6.424630820050231E-06</v>
+        <v>5.497363658368901E-06</v>
       </c>
       <c r="T25">
-        <v>4.405377010620471E-06</v>
+        <v>3.796691665568829E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.05366933333333333</v>
+        <v>0.06728766666666666</v>
       </c>
       <c r="H26">
-        <v>0.161008</v>
+        <v>0.201863</v>
       </c>
       <c r="I26">
-        <v>0.0002048713459627082</v>
+        <v>0.0002487577297110141</v>
       </c>
       <c r="J26">
-        <v>0.0002085181006540421</v>
+        <v>0.0002558041979224861</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N26">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O26">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P26">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q26">
-        <v>3.223347672163555</v>
+        <v>7.053295621301333</v>
       </c>
       <c r="R26">
-        <v>29.010129049472</v>
+        <v>63.47966059171199</v>
       </c>
       <c r="S26">
-        <v>6.488170883479891E-05</v>
+        <v>9.500754986041728E-05</v>
       </c>
       <c r="T26">
-        <v>6.67341976176834E-05</v>
+        <v>9.842382507441408E-05</v>
       </c>
     </row>
   </sheetData>
